--- a/华夏基金工作日志/工作文件/导入公司行为流水设计文档.xlsx
+++ b/华夏基金工作日志/工作文件/导入公司行为流水设计文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>一、导入公司行为流水文件</t>
   </si>
@@ -414,7 +414,16 @@
     <t>三、数据库表设计</t>
   </si>
   <si>
+    <t>公司行为证券变动数据库设计(cm_bond_corporate_position_flow)</t>
+  </si>
+  <si>
     <t>创建时间</t>
+  </si>
+  <si>
+    <t>业务类型，其中包括债券持仓、标准券自动出库、质押券自动出库</t>
+  </si>
+  <si>
+    <t>公司行为资金变动数据库设计(cm_bond_corporate_capital_flow)</t>
   </si>
 </sst>
 </file>
@@ -599,9 +608,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,8 +622,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,6 +651,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -660,37 +681,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,49 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +741,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,13 +789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,12 +832,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,10 +965,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,133 +977,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,10 +1144,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1809,124 +1818,124 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:13">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:13">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:13">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:13">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:13">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:13">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="2:13">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:13">
       <c r="B34" s="6" t="s">
@@ -1950,11 +1959,11 @@
       <c r="H34" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:13">
       <c r="B35" s="5" t="s">
@@ -1978,11 +1987,11 @@
       <c r="H35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="2:13">
       <c r="B36" s="5" t="s">
@@ -2004,11 +2013,11 @@
       <c r="H36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="2:8">
       <c r="B37" s="5" t="s">
@@ -2067,7 +2076,7 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2112,14 +2121,14 @@
       <c r="H41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:16">
       <c r="B42" s="5" t="s">
@@ -2139,14 +2148,14 @@
       <c r="H42" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:16">
       <c r="B43" s="5" t="s">
@@ -2168,55 +2177,55 @@
       <c r="H43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:16">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:16">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:16">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="6" t="s">
         <v>75</v>
       </c>
@@ -2238,17 +2247,17 @@
       <c r="H46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:16">
-      <c r="A47" s="13"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="7" t="s">
         <v>82</v>
       </c>
@@ -2270,17 +2279,17 @@
       <c r="H47" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:16">
-      <c r="A48" s="13"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="7" t="s">
         <v>104</v>
       </c>
@@ -2300,17 +2309,17 @@
       <c r="H48" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:16">
-      <c r="A49" s="13"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="7" t="s">
         <v>88</v>
       </c>
@@ -2330,17 +2339,17 @@
       <c r="H49" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:16">
-      <c r="A50" s="13"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="7" t="s">
         <v>106</v>
       </c>
@@ -2358,17 +2367,17 @@
       <c r="H50" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:16">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="7" t="s">
         <v>108</v>
       </c>
@@ -2388,14 +2397,14 @@
       <c r="H51" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="5" t="s">
@@ -2426,10 +2435,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -3088,13 +3097,13 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="2:13">
       <c r="B59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:13">
       <c r="B60" s="6" t="s">
@@ -3118,11 +3127,11 @@
       <c r="H60" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:13">
       <c r="B61" s="5" t="s">
@@ -3146,11 +3155,11 @@
       <c r="H61" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:13">
       <c r="B62" s="5" t="s">
@@ -3172,11 +3181,11 @@
       <c r="H62" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:13">
       <c r="B63" s="5" t="s">
@@ -3198,15 +3207,15 @@
       <c r="H63" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:13">
       <c r="B64" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>91</v>
@@ -3217,46 +3226,48 @@
       <c r="E64" s="5">
         <v>4</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="G64" s="5"/>
-      <c r="H64" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
+      <c r="H64" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:13">
       <c r="B65" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D65" s="5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E65" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:13">
       <c r="B66" s="5" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>97</v>
@@ -3267,119 +3278,125 @@
       <c r="E66" s="5">
         <v>0</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:13">
       <c r="B67" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D67" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
-      <c r="F67" s="5"/>
+      <c r="F67" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="2:13">
-      <c r="B68" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:8">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:8">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:8">
+      <c r="A70" s="12"/>
+      <c r="B70" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:16">
+      <c r="A71" s="12"/>
+      <c r="B71" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="5">
-        <v>20</v>
-      </c>
-      <c r="E68" s="5">
+      <c r="D71" s="7">
+        <v>40</v>
+      </c>
+      <c r="E71" s="7">
         <v>0</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:8">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:8">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:8">
-      <c r="A71" s="13"/>
-      <c r="B71" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="G71" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:16">
-      <c r="A72" s="13"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="7" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>83</v>
@@ -3393,25 +3410,23 @@
       <c r="F72" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:16">
-      <c r="A73" s="13"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>83</v>
@@ -3427,79 +3442,78 @@
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:16">
-      <c r="A74" s="13"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>83</v>
+        <v>106</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="D74" s="7">
-        <v>40</v>
-      </c>
-      <c r="E74" s="7">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E74" s="7"/>
       <c r="F74" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:16">
-      <c r="A75" s="13"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="7">
-        <v>18</v>
-      </c>
-      <c r="E75" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
       <c r="F75" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:16">
-      <c r="A76" s="13"/>
-      <c r="B76" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="2:16">
+      <c r="B76" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>97</v>
@@ -3510,98 +3524,69 @@
       <c r="E76" s="5">
         <v>0</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="2:16">
-      <c r="B77" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="5">
-        <v>0</v>
-      </c>
-      <c r="E77" s="5">
-        <v>0</v>
-      </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5" t="s">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="9:16">
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="9:16">
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="9:16">
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="9:16">
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="9:16">
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-    </row>
-    <row r="82" s="1" customFormat="1" spans="9:16">
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
